--- a/OpCodes for Ctrl.xlsx
+++ b/OpCodes for Ctrl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potts\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potts\Documents\GitHub\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB91C42A-6A9F-42D2-B1BF-26EF948FD9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A89C70-9F0F-49D5-8D2E-E3776CF95767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{C3EF1FD4-0928-4246-9FA0-6A46EB4447AA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Shift Left Logical</t>
   </si>
@@ -135,6 +135,66 @@
   </si>
   <si>
     <t>MoveZ</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>000110</t>
+  </si>
+  <si>
+    <t>000111</t>
+  </si>
+  <si>
+    <t>001011</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>instr.?</t>
+  </si>
+  <si>
+    <t>reg.?</t>
+  </si>
+  <si>
+    <t>skip?</t>
+  </si>
+  <si>
+    <t>comparators?</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>001110</t>
+  </si>
+  <si>
+    <t>decides MUX value</t>
   </si>
 </sst>
 </file>
@@ -150,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,9 +236,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B566E783-A5BE-491B-8F0A-3056E12FEEBB}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,317 +565,359 @@
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>100011</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -817,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -826,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -838,9 +947,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -849,30 +958,30 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -881,16 +990,16 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -899,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -913,24 +1022,184 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>0</v>
       </c>
     </row>

--- a/OpCodes for Ctrl.xlsx
+++ b/OpCodes for Ctrl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\potts\Documents\GitHub\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A89C70-9F0F-49D5-8D2E-E3776CF95767}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA521E6F-4D75-4626-B471-29A57BD42004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{C3EF1FD4-0928-4246-9FA0-6A46EB4447AA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Shift Left Logical</t>
   </si>
@@ -201,8 +201,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -236,10 +244,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B566E783-A5BE-491B-8F0A-3056E12FEEBB}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +574,7 @@
     <col min="1" max="1" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
@@ -579,7 +588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +602,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -608,8 +618,26 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -623,8 +651,26 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -638,8 +684,26 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -653,8 +717,26 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -668,8 +750,26 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -683,8 +783,26 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -699,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -714,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -733,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -751,8 +869,9 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -770,8 +889,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -789,8 +911,9 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -801,8 +924,14 @@
         <v>1</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -813,6 +942,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -825,6 +958,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="2"/>
+      <c r="H17" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -837,6 +973,9 @@
         <v>1</v>
       </c>
       <c r="E18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -891,8 +1030,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
@@ -904,8 +1042,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
     </row>
